--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1241">
   <si>
     <t>No frames selected</t>
   </si>
@@ -165,15 +165,6 @@
     <t>frames added successfully</t>
   </si>
   <si>
-    <t>x frames added successfully</t>
-  </si>
-  <si>
-    <t>x shapes added successfully</t>
-  </si>
-  <si>
-    <t>x pois added successfully</t>
-  </si>
-  <si>
     <t>Heatmap added successfully</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>Please select the Shapes tab.</t>
   </si>
   <si>
-    <t>Total records found : x</t>
-  </si>
-  <si>
     <t>Poi added successfully</t>
   </si>
   <si>
@@ -1326,9 +1314,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>TotalRecordsFound:X</t>
-  </si>
-  <si>
     <t>TvArea</t>
   </si>
   <si>
@@ -1956,9 +1941,6 @@
     <t>合計：</t>
   </si>
   <si>
-    <t>該当レコード数合計： x</t>
-  </si>
-  <si>
     <t>[Town]</t>
   </si>
   <si>
@@ -1980,9 +1962,6 @@
     <t>徒歩</t>
   </si>
   <si>
-    <t>x POIが追加されました</t>
-  </si>
-  <si>
     <t>[Shape]が選択されていません。POIの絞り込みを実行するには、[Shape]を作成または選択してください</t>
   </si>
   <si>
@@ -2055,12 +2034,6 @@
     <t>リポジトリ名が必要です</t>
   </si>
   <si>
-    <t>[Frame] x 個が追加されました</t>
-  </si>
-  <si>
-    <t>[Shape] x 個が追加されました</t>
-  </si>
-  <si>
     <t>削除する[Shape]を選択してください</t>
   </si>
   <si>
@@ -3654,18 +3627,9 @@
     <t>LBL_Tagging</t>
   </si>
   <si>
-    <t>LBL_PioneeringOoh</t>
-  </si>
-  <si>
     <t>LBL_Posterscope</t>
   </si>
   <si>
-    <t>LBL_Psi</t>
-  </si>
-  <si>
-    <t>LBL_Pslive</t>
-  </si>
-  <si>
     <t>LBL_Neon</t>
   </si>
   <si>
@@ -3717,15 +3681,6 @@
     <t>MSG_E_SelectAMapName</t>
   </si>
   <si>
-    <t>MSG_I_Loading,{tabName: options.TabName}</t>
-  </si>
-  <si>
-    <t>MSG_I_GettingFramesForShapes,{name:shape.Name}</t>
-  </si>
-  <si>
-    <t>MSG_I_GettingFramesForNShapes,{count:totalShapes}</t>
-  </si>
-  <si>
     <t>MSG_I_Loading</t>
   </si>
   <si>
@@ -3739,6 +3694,57 @@
   </si>
   <si>
     <t>LBL_NoShapesSelectedPleaseSelectTheShapesFirst</t>
+  </si>
+  <si>
+    <t>Loading %{tabName} tab</t>
+  </si>
+  <si>
+    <t>Getting Frames For Shapes:  %{name}</t>
+  </si>
+  <si>
+    <t>GettingFramesFor %{count} Shapes</t>
+  </si>
+  <si>
+    <t>GettingFramesForShapes</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>GettingFramesForNShapes</t>
+  </si>
+  <si>
+    <t>LBL_PioneeringOOh</t>
+  </si>
+  <si>
+    <t>LBL_PSI</t>
+  </si>
+  <si>
+    <t>LBL_PsLIVE</t>
+  </si>
+  <si>
+    <t>%{count} frames added successfully</t>
+  </si>
+  <si>
+    <t>%{count} pois added successfully</t>
+  </si>
+  <si>
+    <t>%{count} shapes added successfully</t>
+  </si>
+  <si>
+    <t>%{count} 個が追加されました</t>
+  </si>
+  <si>
+    <t>%{count} が追加されました</t>
+  </si>
+  <si>
+    <t>該当レコード数合計： %{count}</t>
+  </si>
+  <si>
+    <t>Total records found : %{count}</t>
+  </si>
+  <si>
+    <t>TotalRecordsFound</t>
   </si>
 </sst>
 </file>
@@ -4317,8 +4323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="E246" sqref="E246"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4333,6767 +4339,6767 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F85" s="14"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="F86" s="14"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F119" s="14"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F125" s="14"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F126" s="14"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F127" s="14"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F128" s="14"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F129" s="14"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F130" s="14"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F131" s="14"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F132" s="14"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F133" s="14"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F134" s="14"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F135" s="14"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F136" s="14"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F137" s="14"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F138" s="14"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F139" s="14"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F140" s="14"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F141" s="14"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F142" s="14"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F143" s="14"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F144" s="14"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F145" s="14"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F147" s="14"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F148" s="14"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F149" s="14"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F150" s="14"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F151" s="14"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F153" s="14"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F154" s="14"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F155" s="14"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F156" s="14"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F157" s="14"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F160" s="14"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F161" s="14"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F162" s="14"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F163" s="14"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F165" s="14"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F166" s="14"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F167" s="14"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F168" s="14"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F169" s="14"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F170" s="14"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F171" s="14"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F172" s="14"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F173" s="14"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F174" s="14"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F175" s="14"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F176" s="14"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F177" s="14"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F178" s="14"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F179" s="14"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="F180" s="14"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F181" s="14"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F182" s="14"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F183" s="14"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F184" s="14"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F185" s="14"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F186" s="14"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F187" s="14"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F188" s="14"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F189" s="14"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F190" s="14"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F191" s="14"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F192" s="14"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F193" s="14"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F194" s="14"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F195" s="14"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F196" s="14"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F197" s="14"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F198" s="14"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F199" s="14"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F200" s="14"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F201" s="14"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F202" s="14"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F203" s="14"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F204" s="14"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F205" s="14"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F206" s="14"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F207" s="14"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F208" s="14"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F209" s="14"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F210" s="14"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F211" s="14"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F212" s="14"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F213" s="14"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F214" s="14"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F215" s="14"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F216" s="14"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F217" s="14"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F218" s="14"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F219" s="14"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F220" s="14"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F221" s="14"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F222" s="14"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F223" s="14"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F224" s="14"/>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F225" s="14"/>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F226" s="14"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F227" s="14"/>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F228" s="14"/>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F229" s="14"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>434</v>
+        <v>1240</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>60</v>
+        <v>1239</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>644</v>
+        <v>1238</v>
       </c>
       <c r="F230" s="14"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F231" s="14"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F232" s="14"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F233" s="14"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F234" s="14"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F235" s="14"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D236" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F236" s="14"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F237" s="14"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>47</v>
+        <v>1233</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>677</v>
+        <v>1236</v>
       </c>
       <c r="F238" s="14"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>49</v>
+        <v>1234</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>652</v>
+        <v>1237</v>
       </c>
       <c r="F239" s="14"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>48</v>
+        <v>1235</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>678</v>
+        <v>1236</v>
       </c>
       <c r="F240" s="14"/>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F241" s="14"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F242" s="14"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F243" s="14"/>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F244" s="14"/>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F245" s="14"/>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F246" s="14"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F247" s="14"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="F248" s="14"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F249" s="14"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="F250" s="14"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F251" s="14"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F252" s="14"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="F253" s="14"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F254" s="14"/>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F255" s="14"/>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F256" s="14"/>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F257" s="14"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F258" s="14"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="F259" s="14"/>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F260" s="14"/>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="F261" s="14"/>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F262" s="14"/>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="F263" s="14"/>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F264" s="14"/>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="F265" s="14"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F266" s="14"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F267" s="14"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F268" s="14"/>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="F269" s="14"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F270" s="14"/>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F271" s="14"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F272" s="14"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F273" s="14"/>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F274" s="14"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="F275" s="14"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F276" s="14"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="F277" s="14"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F278" s="14"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="F279" s="14"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F280" s="14"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="F281" s="14"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F282" s="14"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="F283" s="14"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F284" s="14"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="F285" s="14"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F286" s="14"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F287" s="14"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F288" s="14"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F289" s="14"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F290" s="14"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F291" s="14"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F292" s="14"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="F293" s="14"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F294" s="14"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="F295" s="14"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F296" s="14"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="F297" s="14"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F298" s="14"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="F299" s="14"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F300" s="14"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="F301" s="14"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F302" s="14"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F303" s="14"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F304" s="14"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F305" s="14"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F306" s="14"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="F307" s="14"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F308" s="14"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="F309" s="14"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F310" s="14"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="F311" s="14"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F312" s="14"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="F313" s="14"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F314" s="14"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="F315" s="14"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F316" s="14"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F317" s="14"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="F318" s="14"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F319" s="14"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F320" s="14"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F321" s="14"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F322" s="14"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="F323" s="14"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F324" s="14"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="D325" s="11" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F325" s="14"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D326" s="11" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="F326" s="14"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F327" s="14"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="F328" s="14"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F329" s="14"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F330" s="14"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F331" s="14"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F332" s="14"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F333" s="14"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F334" s="14"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="F335" s="14"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F336" s="14"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="F337" s="14"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F338" s="14"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="F339" s="14"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="F340" s="14"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F341" s="14"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="F342" s="14"/>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F343" s="14"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F344" s="14"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="D345" s="11" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F345" s="14"/>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="F346" s="14"/>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F347" s="14"/>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F348" s="14"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F349" s="14"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F350" s="14"/>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="F351" s="14"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F352" s="14"/>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="F353" s="14"/>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F354" s="14"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="F355" s="14"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F356" s="14"/>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>1210</v>
+        <v>1230</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="F357" s="14"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F358" s="14"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>1212</v>
+        <v>1231</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="F359" s="14"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>1213</v>
+        <v>1232</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F360" s="14"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F361" s="14"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F362" s="14"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="F363" s="14"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F364" s="14"/>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F365" s="14"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="F366" s="14"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F367" s="14"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F368" s="14"/>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E369" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F369" s="14"/>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F370" s="14"/>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="F371" s="14"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="F372" s="14"/>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F373" s="14"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="E374" s="11" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="F374" s="14"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="11" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="E375" s="11" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="F375" s="14"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="11" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="E376" s="11" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="F376" s="14"/>
     </row>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -72,9 +72,6 @@
     <t>You haven't selected any shape(s) yet. Please draw/select the shape(s) to filter Frames.</t>
   </si>
   <si>
-    <t>You haven't selected any shape(s) yet. Please draw/select the shape(s) to filter Pois.</t>
-  </si>
-  <si>
     <t>No markers present on the map</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t>Map saved</t>
   </si>
   <si>
-    <t>Poi Type need to be defined</t>
-  </si>
-  <si>
-    <t>Poi's Saved</t>
-  </si>
-  <si>
     <t>POI definition created</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>Please select a valid Email Address</t>
   </si>
   <si>
-    <t>Loading  Pois Tab</t>
-  </si>
-  <si>
     <t>Loading  Shapes Tab</t>
   </si>
   <si>
@@ -195,9 +183,6 @@
     <t>Please select the Shapes tab.</t>
   </si>
   <si>
-    <t>Poi added successfully</t>
-  </si>
-  <si>
     <t>Please select poi tab first</t>
   </si>
   <si>
@@ -645,9 +630,6 @@
     <t>Shapes to Frames analysis not supported. Please select different tabs</t>
   </si>
   <si>
-    <t>Shapes to Pois analysis not supported. Please select different tabs</t>
-  </si>
-  <si>
     <t>shared successfully</t>
   </si>
   <si>
@@ -2376,9 +2358,6 @@
     <t>Identity</t>
   </si>
   <si>
-    <t>Poi Id</t>
-  </si>
-  <si>
     <t>Clearfilter</t>
   </si>
   <si>
@@ -2622,9 +2601,6 @@
     <t>LBL_Add</t>
   </si>
   <si>
-    <t>LBL_AddPOI</t>
-  </si>
-  <si>
     <t>LBL_AddToRepository</t>
   </si>
   <si>
@@ -2994,9 +2970,6 @@
     <t>MSG_E_NoMarkersSelected_PleaseSelectTheMarkersFirst</t>
   </si>
   <si>
-    <t>MSG_E_NoPOIsSelected</t>
-  </si>
-  <si>
     <t>MSG_E_NoShapesSelected</t>
   </si>
   <si>
@@ -3039,9 +3012,6 @@
     <t>MSG_E_PleaseSelectFrameId</t>
   </si>
   <si>
-    <t>MSG_E_PleaseSelectFramesOrPOIsTab</t>
-  </si>
-  <si>
     <t>MSG_E_PleaseSelectPlan</t>
   </si>
   <si>
@@ -3090,9 +3060,6 @@
     <t>MSG_E_PleaseSelectValidSourceAndDestination_YouCanCanculateDistanceBetweenOnly2FlaggedMarkers</t>
   </si>
   <si>
-    <t>LBL_POI</t>
-  </si>
-  <si>
     <t>MSG_S_PoiAddedSuccessfully</t>
   </si>
   <si>
@@ -3745,6 +3712,39 @@
   </si>
   <si>
     <t>TotalRecordsFound</t>
+  </si>
+  <si>
+    <t>LBL_AddPoi</t>
+  </si>
+  <si>
+    <t>MSG_E_NoPoisSelected</t>
+  </si>
+  <si>
+    <t>MSG_E_PleaseSelectFramesOrPoisTab</t>
+  </si>
+  <si>
+    <t>LBL_Poi</t>
+  </si>
+  <si>
+    <t>Loading  POIs Tab</t>
+  </si>
+  <si>
+    <t>POI added successfully</t>
+  </si>
+  <si>
+    <t>POI Type need to be defined</t>
+  </si>
+  <si>
+    <t>POIs Saved</t>
+  </si>
+  <si>
+    <t>Shapes to POIs analysis not supported. Please select different tabs</t>
+  </si>
+  <si>
+    <t>You haven't selected any shape(s) yet. Please draw/select the shape(s) to filter POIs.</t>
+  </si>
+  <si>
+    <t>POI Id</t>
   </si>
 </sst>
 </file>
@@ -4323,8 +4323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D361" workbookViewId="0">
+      <selection activeCell="E373" sqref="E373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4339,6767 +4339,6767 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>866</v>
+        <v>1230</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F85" s="14"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F86" s="14"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>42</v>
+        <v>1234</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F119" s="14"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F125" s="14"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F126" s="14"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F127" s="14"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F128" s="14"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F129" s="14"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F130" s="14"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>990</v>
+        <v>1231</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F131" s="14"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F132" s="14"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F133" s="14"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F134" s="14"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F135" s="14"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F136" s="14"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F137" s="14"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F138" s="14"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F139" s="14"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F140" s="14"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F141" s="14"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F142" s="14"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F143" s="14"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F144" s="14"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F145" s="14"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1005</v>
+        <v>1232</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F147" s="14"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F148" s="14"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F149" s="14"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F150" s="14"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F151" s="14"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F153" s="14"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F154" s="14"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F155" s="14"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F156" s="14"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F157" s="14"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F160" s="14"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F161" s="14"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F162" s="14"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>1022</v>
+        <v>1233</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F163" s="14"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>57</v>
+        <v>1235</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F165" s="14"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F166" s="14"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F167" s="14"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F168" s="14"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F169" s="14"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F170" s="14"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F171" s="14"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>31</v>
+        <v>1236</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F172" s="14"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>32</v>
+        <v>1237</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F173" s="14"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F174" s="14"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F175" s="14"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F176" s="14"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F177" s="14"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F178" s="14"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F179" s="14"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F180" s="14"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F181" s="14"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F182" s="14"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F183" s="14"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F184" s="14"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F185" s="14"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F186" s="14"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F187" s="14"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F188" s="14"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F189" s="14"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F190" s="14"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F191" s="14"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F192" s="14"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F193" s="14"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F194" s="14"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F195" s="14"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F196" s="14"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F197" s="14"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F198" s="14"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F199" s="14"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F200" s="14"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F201" s="14"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F202" s="14"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F203" s="14"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F204" s="14"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F205" s="14"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F206" s="14"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F207" s="14"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F208" s="14"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F209" s="14"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>207</v>
+        <v>1238</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F210" s="14"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F211" s="14"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F212" s="14"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F213" s="14"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F214" s="14"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F215" s="14"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F216" s="14"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F217" s="14"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F218" s="14"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F219" s="14"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F220" s="14"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F221" s="14"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F222" s="14"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F223" s="14"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F224" s="14"/>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F225" s="14"/>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F226" s="14"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F227" s="14"/>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F228" s="14"/>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F229" s="14"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="F230" s="14"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F231" s="14"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F232" s="14"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F233" s="14"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F234" s="14"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F235" s="14"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F236" s="14"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F237" s="14"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="F238" s="14"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="F239" s="14"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="F240" s="14"/>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F241" s="14"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F242" s="14"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>16</v>
+        <v>1239</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F243" s="14"/>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F244" s="14"/>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F245" s="14"/>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F246" s="14"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F247" s="14"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F248" s="14"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F249" s="14"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F250" s="14"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F251" s="14"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F252" s="14"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F253" s="14"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F254" s="14"/>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F255" s="14"/>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F256" s="14"/>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F257" s="14"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F258" s="14"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F259" s="14"/>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F260" s="14"/>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F261" s="14"/>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F262" s="14"/>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F263" s="14"/>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F264" s="14"/>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F265" s="14"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F266" s="14"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F267" s="14"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F268" s="14"/>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F269" s="14"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F270" s="14"/>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F271" s="14"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F272" s="14"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F273" s="14"/>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F274" s="14"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F275" s="14"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F276" s="14"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F277" s="14"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F278" s="14"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F279" s="14"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F280" s="14"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F281" s="14"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F282" s="14"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F283" s="14"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F284" s="14"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F285" s="14"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F286" s="14"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F287" s="14"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F288" s="14"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F289" s="14"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F290" s="14"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F291" s="14"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F292" s="14"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F293" s="14"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F294" s="14"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F295" s="14"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F296" s="14"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F297" s="14"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="F298" s="14"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F299" s="14"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F300" s="14"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F301" s="14"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F302" s="14"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F303" s="14"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F304" s="14"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F305" s="14"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F306" s="14"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F307" s="14"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F308" s="14"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F309" s="14"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="F310" s="14"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F311" s="14"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F312" s="14"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F313" s="14"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F314" s="14"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F315" s="14"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F316" s="14"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F317" s="14"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F318" s="14"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F319" s="14"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F320" s="14"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F321" s="14"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F322" s="14"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F323" s="14"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F324" s="14"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D325" s="11" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F325" s="14"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D326" s="11" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F326" s="14"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F327" s="14"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F328" s="14"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F329" s="14"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F330" s="14"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F331" s="14"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F332" s="14"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F333" s="14"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="F334" s="14"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F335" s="14"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F336" s="14"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F337" s="14"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F338" s="14"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F339" s="14"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F340" s="14"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F341" s="14"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F342" s="14"/>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F343" s="14"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F344" s="14"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D345" s="11" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F345" s="14"/>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F346" s="14"/>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F347" s="14"/>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F348" s="14"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F349" s="14"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F350" s="14"/>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F351" s="14"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F352" s="14"/>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F353" s="14"/>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F354" s="14"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F355" s="14"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F356" s="14"/>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F357" s="14"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F358" s="14"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F359" s="14"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F360" s="14"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F361" s="14"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F362" s="14"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F363" s="14"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F364" s="14"/>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F365" s="14"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F366" s="14"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F367" s="14"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F368" s="14"/>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E369" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F369" s="14"/>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="F370" s="14"/>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F371" s="14"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F372" s="14"/>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>784</v>
+        <v>1240</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>784</v>
+        <v>1240</v>
       </c>
       <c r="F373" s="14"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="E374" s="11" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="F374" s="14"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="11" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="E375" s="11" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="F375" s="14"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="11" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="E376" s="11" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="F376" s="14"/>
     </row>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -183,9 +183,6 @@
     <t>Please select the Shapes tab.</t>
   </si>
   <si>
-    <t>Please select poi tab first</t>
-  </si>
-  <si>
     <t>Markers added successfully</t>
   </si>
   <si>
@@ -615,9 +612,6 @@
     <t>Opening map:</t>
   </si>
   <si>
-    <t>Please enter poi defintion name.</t>
-  </si>
-  <si>
     <t>Please select the POIs tab.</t>
   </si>
   <si>
@@ -3681,9 +3675,6 @@
     <t>GettingFramesForNShapes</t>
   </si>
   <si>
-    <t>LBL_PioneeringOOh</t>
-  </si>
-  <si>
     <t>LBL_PSI</t>
   </si>
   <si>
@@ -3693,9 +3684,6 @@
     <t>%{count} frames added successfully</t>
   </si>
   <si>
-    <t>%{count} pois added successfully</t>
-  </si>
-  <si>
     <t>%{count} shapes added successfully</t>
   </si>
   <si>
@@ -3745,6 +3733,18 @@
   </si>
   <si>
     <t>POI Id</t>
+  </si>
+  <si>
+    <t>LBL_PioneeringOOH</t>
+  </si>
+  <si>
+    <t>%{count} POIs added successfully</t>
+  </si>
+  <si>
+    <t>Please select POI tab first</t>
+  </si>
+  <si>
+    <t>Please enter POI defintion name.</t>
   </si>
 </sst>
 </file>
@@ -4323,6783 +4323,6783 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D361" workbookViewId="0">
-      <selection activeCell="E373" sqref="E373"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="1" sqref="B1:B1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.42578125" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" style="11" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="99.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F85" s="14"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F86" s="14"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F119" s="14"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F125" s="14"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F126" s="14"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F127" s="14"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F128" s="14"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F129" s="14"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F130" s="14"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F131" s="14"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F132" s="14"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F133" s="14"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F134" s="14"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F135" s="14"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F136" s="14"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F137" s="14"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>197</v>
+        <v>1240</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F138" s="14"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F139" s="14"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F140" s="14"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F141" s="14"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F142" s="14"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F143" s="14"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F144" s="14"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F145" s="14"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F147" s="14"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>53</v>
+        <v>1239</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F148" s="14"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F149" s="14"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F150" s="14"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F151" s="14"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F153" s="14"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F154" s="14"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F155" s="14"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F156" s="14"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F157" s="14"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F160" s="14"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F161" s="14"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F162" s="14"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F163" s="14"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F165" s="14"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F166" s="14"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F167" s="14"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F168" s="14"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F169" s="14"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F170" s="14"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F171" s="14"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F172" s="14"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F173" s="14"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F174" s="14"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F175" s="14"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F176" s="14"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F177" s="14"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F178" s="14"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F179" s="14"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F180" s="14"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F181" s="14"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F182" s="14"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F183" s="14"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F184" s="14"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F185" s="14"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F186" s="14"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F187" s="14"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F188" s="14"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F189" s="14"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F190" s="14"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F191" s="14"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F192" s="14"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F193" s="14"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F194" s="14"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F195" s="14"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F196" s="14"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F197" s="14"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F198" s="14"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F199" s="14"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F200" s="14"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F201" s="14"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F202" s="14"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F203" s="14"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F204" s="14"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F205" s="14"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F206" s="14"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F207" s="14"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F208" s="14"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F209" s="14"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F210" s="14"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F211" s="14"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F212" s="14"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F213" s="14"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F214" s="14"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F215" s="14"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F216" s="14"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F217" s="14"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F218" s="14"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F219" s="14"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F220" s="14"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F221" s="14"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F222" s="14"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F223" s="14"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F224" s="14"/>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F225" s="14"/>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F226" s="14"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F227" s="14"/>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F228" s="14"/>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F229" s="14"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F230" s="14"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F231" s="14"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F232" s="14"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F233" s="14"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F234" s="14"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F235" s="14"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D236" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F236" s="14"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F237" s="14"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F238" s="14"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>1223</v>
+        <v>1238</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F239" s="14"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F240" s="14"/>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F241" s="14"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F242" s="14"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F243" s="14"/>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F244" s="14"/>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F245" s="14"/>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F246" s="14"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F247" s="14"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F248" s="14"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F249" s="14"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F250" s="14"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F251" s="14"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F252" s="14"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F253" s="14"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F254" s="14"/>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F255" s="14"/>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F256" s="14"/>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F257" s="14"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F258" s="14"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F259" s="14"/>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F260" s="14"/>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F261" s="14"/>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F262" s="14"/>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F263" s="14"/>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F264" s="14"/>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F265" s="14"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F266" s="14"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F267" s="14"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F268" s="14"/>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F269" s="14"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F270" s="14"/>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F271" s="14"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F272" s="14"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F273" s="14"/>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F274" s="14"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F275" s="14"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F276" s="14"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F277" s="14"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F278" s="14"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F279" s="14"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F280" s="14"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F281" s="14"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F282" s="14"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F283" s="14"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F284" s="14"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F285" s="14"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F286" s="14"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F287" s="14"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F288" s="14"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F289" s="14"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F290" s="14"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F291" s="14"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F292" s="14"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F293" s="14"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F294" s="14"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F295" s="14"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F296" s="14"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F297" s="14"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F298" s="14"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F299" s="14"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F300" s="14"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F301" s="14"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F302" s="14"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F303" s="14"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F304" s="14"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F305" s="14"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F306" s="14"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F307" s="14"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F308" s="14"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F309" s="14"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F310" s="14"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F311" s="14"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F312" s="14"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F313" s="14"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F314" s="14"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F315" s="14"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F316" s="14"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F317" s="14"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F318" s="14"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F319" s="14"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F320" s="14"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F321" s="14"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F322" s="14"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F323" s="14"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F324" s="14"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D325" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F325" s="14"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D326" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F326" s="14"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F327" s="14"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F328" s="14"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F329" s="14"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F330" s="14"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F331" s="14"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F332" s="14"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F333" s="14"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F334" s="14"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F335" s="14"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F336" s="14"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F337" s="14"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F338" s="14"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F339" s="14"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F340" s="14"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F341" s="14"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F342" s="14"/>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F343" s="14"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F344" s="14"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D345" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F345" s="14"/>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F346" s="14"/>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F347" s="14"/>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F348" s="14"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F349" s="14"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F350" s="14"/>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F351" s="14"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F352" s="14"/>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F353" s="14"/>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F354" s="14"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F355" s="14"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F356" s="14"/>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>1219</v>
+        <v>1237</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F357" s="14"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F358" s="14"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F359" s="14"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F360" s="14"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F361" s="14"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F362" s="14"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F363" s="14"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F364" s="14"/>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F365" s="14"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F366" s="14"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F367" s="14"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F368" s="14"/>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E369" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F369" s="14"/>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F370" s="14"/>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F371" s="14"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F372" s="14"/>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="F373" s="14"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E374" s="11" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F374" s="14"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="11" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E375" s="11" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F375" s="14"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B376" s="11" t="s">
         <v>1209</v>
       </c>
-      <c r="B376" s="11" t="s">
-        <v>1211</v>
-      </c>
       <c r="C376" s="11" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E376" s="11" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F376" s="14"/>
     </row>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1251">
   <si>
     <t>No frames selected</t>
   </si>
@@ -3745,6 +3745,36 @@
   </si>
   <si>
     <t>Please enter POI defintion name.</t>
+  </si>
+  <si>
+    <t>LBL_Add_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_Blueprints_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_Error_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_FrameId_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_IsSelected_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_Longitude_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_RowsCount_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_ShapeName_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_ShapeType_to_remove</t>
+  </si>
+  <si>
+    <t>LBL_TvAreas_to_remove</t>
   </si>
 </sst>
 </file>
@@ -4323,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="B1:B1048576 E1:E1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4332,7 +4362,7 @@
     <col min="1" max="1" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="94.42578125" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="11"/>
   </cols>
@@ -9470,7 +9500,7 @@
         <v>239</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1120</v>
+        <v>1247</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>800</v>
@@ -9524,7 +9554,7 @@
         <v>239</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>956</v>
+        <v>1246</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>138</v>
@@ -10010,7 +10040,7 @@
         <v>239</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>856</v>
+        <v>1241</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>73</v>
@@ -10064,7 +10094,7 @@
         <v>239</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>1095</v>
+        <v>1243</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>66</v>
@@ -10154,7 +10184,7 @@
         <v>239</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>948</v>
+        <v>1245</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>317</v>
@@ -10262,7 +10292,7 @@
         <v>239</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>1136</v>
+        <v>1250</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>810</v>
@@ -10424,7 +10454,7 @@
         <v>239</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1121</v>
+        <v>1242</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>693</v>
@@ -10928,7 +10958,7 @@
         <v>239</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>1047</v>
+        <v>1248</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>399</v>
@@ -10946,7 +10976,7 @@
         <v>239</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1048</v>
+        <v>1249</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>400</v>
@@ -11018,7 +11048,7 @@
         <v>239</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1119</v>
+        <v>1244</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>799</v>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1265">
   <si>
     <t>No frames selected</t>
   </si>
@@ -3093,9 +3093,6 @@
     <t>LBL_PostalSector</t>
   </si>
   <si>
-    <t>LBL_Processing</t>
-  </si>
-  <si>
     <t>LBL_Recieved</t>
   </si>
   <si>
@@ -3775,13 +3772,58 @@
   </si>
   <si>
     <t>LBL_TvAreas_to_remove</t>
+  </si>
+  <si>
+    <t>MSG_I_PleaseWaitWhileMapIsBeingSaved</t>
+  </si>
+  <si>
+    <t>MSG_I_PleaseWaitWhileHeatmapIsBeingLoaded</t>
+  </si>
+  <si>
+    <t>MSG_I_ClearingExistingHeatmap</t>
+  </si>
+  <si>
+    <t>MSG_I_Deleting</t>
+  </si>
+  <si>
+    <t>MSG_I_ProcessingDuplicates</t>
+  </si>
+  <si>
+    <t>MSG_I_PercentageComplete</t>
+  </si>
+  <si>
+    <t>MSG_I_CharactersRemaining</t>
+  </si>
+  <si>
+    <t>Please wait while map is being saved...</t>
+  </si>
+  <si>
+    <t>Please wait while heatmap is being loaded...</t>
+  </si>
+  <si>
+    <t>Clearing existing heatmap</t>
+  </si>
+  <si>
+    <t>Deleting…</t>
+  </si>
+  <si>
+    <t>ProcessingDuplicates…</t>
+  </si>
+  <si>
+    <t>%{percentComplete} % %{context} (%{counter} / %{total})</t>
+  </si>
+  <si>
+    <t>Characters Remaining: %{count} of %{total}</t>
+  </si>
+  <si>
+    <t>MSG_I_Processing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3837,6 +3879,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3972,7 +4020,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3993,7 +4041,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4351,10 +4400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F377"/>
+  <dimension ref="A1:F384"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4460,7 +4509,7 @@
         <v>237</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>245</v>
@@ -5990,7 +6039,7 @@
         <v>237</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>311</v>
@@ -6248,7 +6297,7 @@
         <v>320</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>522</v>
@@ -6710,7 +6759,7 @@
         <v>70</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>338</v>
@@ -6842,7 +6891,7 @@
         <v>342</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>657</v>
@@ -6980,7 +7029,7 @@
         <v>66</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>350</v>
@@ -7022,7 +7071,7 @@
         <v>352</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>563</v>
@@ -7286,7 +7335,7 @@
         <v>237</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>367</v>
@@ -7310,7 +7359,7 @@
         <v>368</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>575</v>
@@ -7454,7 +7503,7 @@
         <v>376</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>607</v>
@@ -7472,7 +7521,7 @@
         <v>377</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>577</v>
@@ -7538,13 +7587,13 @@
         <v>237</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1023</v>
+        <v>1264</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>224</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>224</v>
+        <v>753</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>585</v>
@@ -7556,7 +7605,7 @@
         <v>237</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>380</v>
@@ -7574,7 +7623,7 @@
         <v>70</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>159</v>
@@ -7592,7 +7641,7 @@
         <v>237</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>381</v>
@@ -7610,7 +7659,7 @@
         <v>237</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>382</v>
@@ -7628,7 +7677,7 @@
         <v>66</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>383</v>
@@ -7646,7 +7695,7 @@
         <v>237</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>162</v>
@@ -7664,7 +7713,7 @@
         <v>237</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>384</v>
@@ -7682,7 +7731,7 @@
         <v>237</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>385</v>
@@ -7700,7 +7749,7 @@
         <v>69</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>386</v>
@@ -7718,7 +7767,7 @@
         <v>237</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>165</v>
@@ -7736,7 +7785,7 @@
         <v>66</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>225</v>
@@ -7754,7 +7803,7 @@
         <v>237</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>387</v>
@@ -7772,7 +7821,7 @@
         <v>237</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>388</v>
@@ -7790,7 +7839,7 @@
         <v>237</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>389</v>
@@ -7808,7 +7857,7 @@
         <v>68</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>390</v>
@@ -7826,7 +7875,7 @@
         <v>237</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>391</v>
@@ -7844,7 +7893,7 @@
         <v>237</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>392</v>
@@ -7862,7 +7911,7 @@
         <v>237</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>393</v>
@@ -7880,7 +7929,7 @@
         <v>237</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>394</v>
@@ -7898,7 +7947,7 @@
         <v>237</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>395</v>
@@ -7916,7 +7965,7 @@
         <v>237</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>396</v>
@@ -7934,7 +7983,7 @@
         <v>237</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>170</v>
@@ -7952,7 +8001,7 @@
         <v>69</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>171</v>
@@ -7970,7 +8019,7 @@
         <v>69</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>397</v>
@@ -7988,7 +8037,7 @@
         <v>237</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>398</v>
@@ -8006,7 +8055,7 @@
         <v>237</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>399</v>
@@ -8024,7 +8073,7 @@
         <v>237</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>400</v>
@@ -8042,7 +8091,7 @@
         <v>237</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>401</v>
@@ -8060,7 +8109,7 @@
         <v>237</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>402</v>
@@ -8078,7 +8127,7 @@
         <v>66</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>176</v>
@@ -8096,7 +8145,7 @@
         <v>237</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>403</v>
@@ -8114,7 +8163,7 @@
         <v>70</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>404</v>
@@ -8132,13 +8181,13 @@
         <v>237</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>405</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>645</v>
@@ -8150,7 +8199,7 @@
         <v>237</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>406</v>
@@ -8168,7 +8217,7 @@
         <v>237</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>407</v>
@@ -8186,7 +8235,7 @@
         <v>237</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>408</v>
@@ -8204,7 +8253,7 @@
         <v>237</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>231</v>
@@ -8222,7 +8271,7 @@
         <v>67</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>409</v>
@@ -8240,7 +8289,7 @@
         <v>237</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>410</v>
@@ -8258,7 +8307,7 @@
         <v>70</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>411</v>
@@ -8276,7 +8325,7 @@
         <v>70</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>412</v>
@@ -8294,7 +8343,7 @@
         <v>70</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>413</v>
@@ -8312,7 +8361,7 @@
         <v>66</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>414</v>
@@ -8330,7 +8379,7 @@
         <v>66</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>181</v>
@@ -8348,7 +8397,7 @@
         <v>66</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>415</v>
@@ -8366,7 +8415,7 @@
         <v>237</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>416</v>
@@ -8384,7 +8433,7 @@
         <v>237</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>417</v>
@@ -8402,7 +8451,7 @@
         <v>241</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>418</v>
@@ -8420,7 +8469,7 @@
         <v>66</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>419</v>
@@ -8438,7 +8487,7 @@
         <v>241</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>420</v>
@@ -8456,7 +8505,7 @@
         <v>241</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>186</v>
@@ -8474,7 +8523,7 @@
         <v>241</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>421</v>
@@ -8492,16 +8541,16 @@
         <v>70</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F230" s="14"/>
     </row>
@@ -8510,7 +8559,7 @@
         <v>241</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>187</v>
@@ -8528,7 +8577,7 @@
         <v>241</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>188</v>
@@ -8546,7 +8595,7 @@
         <v>241</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>189</v>
@@ -8564,7 +8613,7 @@
         <v>241</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>422</v>
@@ -8582,7 +8631,7 @@
         <v>241</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>234</v>
@@ -8600,7 +8649,7 @@
         <v>70</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>423</v>
@@ -8618,7 +8667,7 @@
         <v>239</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>191</v>
@@ -8636,16 +8685,16 @@
         <v>68</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>424</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F238" s="14"/>
     </row>
@@ -8654,16 +8703,16 @@
         <v>68</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>425</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F239" s="14"/>
     </row>
@@ -8672,16 +8721,16 @@
         <v>68</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>426</v>
       </c>
       <c r="D240" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E240" s="9" t="s">
         <v>1220</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>1221</v>
       </c>
       <c r="F240" s="14"/>
     </row>
@@ -8690,7 +8739,7 @@
         <v>70</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>427</v>
@@ -8708,7 +8757,7 @@
         <v>70</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>428</v>
@@ -8726,13 +8775,13 @@
         <v>70</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>429</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>638</v>
@@ -8744,7 +8793,7 @@
         <v>237</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>430</v>
@@ -8762,7 +8811,7 @@
         <v>237</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>431</v>
@@ -8780,7 +8829,7 @@
         <v>239</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>663</v>
@@ -8798,7 +8847,7 @@
         <v>239</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>664</v>
@@ -8816,7 +8865,7 @@
         <v>239</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>665</v>
@@ -8834,7 +8883,7 @@
         <v>239</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>776</v>
@@ -8852,7 +8901,7 @@
         <v>239</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>667</v>
@@ -8870,7 +8919,7 @@
         <v>239</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>66</v>
@@ -8888,7 +8937,7 @@
         <v>239</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>668</v>
@@ -8906,7 +8955,7 @@
         <v>239</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>780</v>
@@ -8924,7 +8973,7 @@
         <v>239</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>781</v>
@@ -8942,7 +8991,7 @@
         <v>239</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>782</v>
@@ -8960,7 +9009,7 @@
         <v>239</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>783</v>
@@ -8978,7 +9027,7 @@
         <v>239</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>784</v>
@@ -8996,7 +9045,7 @@
         <v>239</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>785</v>
@@ -9014,7 +9063,7 @@
         <v>239</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>786</v>
@@ -9032,7 +9081,7 @@
         <v>239</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>787</v>
@@ -9050,7 +9099,7 @@
         <v>239</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>788</v>
@@ -9068,7 +9117,7 @@
         <v>239</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>678</v>
@@ -9086,7 +9135,7 @@
         <v>239</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>679</v>
@@ -9104,7 +9153,7 @@
         <v>239</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>789</v>
@@ -9122,7 +9171,7 @@
         <v>239</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>790</v>
@@ -9140,7 +9189,7 @@
         <v>239</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>791</v>
@@ -9158,7 +9207,7 @@
         <v>239</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>792</v>
@@ -9176,7 +9225,7 @@
         <v>239</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>684</v>
@@ -9194,7 +9243,7 @@
         <v>239</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>793</v>
@@ -9212,7 +9261,7 @@
         <v>239</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>794</v>
@@ -9230,7 +9279,7 @@
         <v>239</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>795</v>
@@ -9248,7 +9297,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>796</v>
@@ -9266,7 +9315,7 @@
         <v>239</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>797</v>
@@ -9284,7 +9333,7 @@
         <v>239</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>798</v>
@@ -9302,7 +9351,7 @@
         <v>239</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>799</v>
@@ -9320,7 +9369,7 @@
         <v>239</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>800</v>
@@ -9338,7 +9387,7 @@
         <v>239</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>693</v>
@@ -9356,7 +9405,7 @@
         <v>239</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>801</v>
@@ -9374,7 +9423,7 @@
         <v>239</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>802</v>
@@ -9392,7 +9441,7 @@
         <v>239</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>803</v>
@@ -9410,7 +9459,7 @@
         <v>239</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>804</v>
@@ -9428,7 +9477,7 @@
         <v>239</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>805</v>
@@ -9446,7 +9495,7 @@
         <v>239</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>806</v>
@@ -9464,7 +9513,7 @@
         <v>239</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>700</v>
@@ -9482,7 +9531,7 @@
         <v>239</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>701</v>
@@ -9500,7 +9549,7 @@
         <v>239</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>800</v>
@@ -9518,7 +9567,7 @@
         <v>239</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>807</v>
@@ -9536,7 +9585,7 @@
         <v>239</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>703</v>
@@ -9554,7 +9603,7 @@
         <v>239</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>138</v>
@@ -9572,7 +9621,7 @@
         <v>239</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>808</v>
@@ -9590,7 +9639,7 @@
         <v>239</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>809</v>
@@ -9608,7 +9657,7 @@
         <v>239</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>706</v>
@@ -9626,7 +9675,7 @@
         <v>239</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>707</v>
@@ -9644,7 +9693,7 @@
         <v>239</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>810</v>
@@ -9662,7 +9711,7 @@
         <v>239</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>811</v>
@@ -9680,7 +9729,7 @@
         <v>239</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>812</v>
@@ -9698,7 +9747,7 @@
         <v>239</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>711</v>
@@ -9716,7 +9765,7 @@
         <v>239</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>777</v>
@@ -9734,7 +9783,7 @@
         <v>239</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>713</v>
@@ -9752,7 +9801,7 @@
         <v>239</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>813</v>
@@ -9770,7 +9819,7 @@
         <v>239</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>814</v>
@@ -9788,7 +9837,7 @@
         <v>239</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>815</v>
@@ -9806,7 +9855,7 @@
         <v>239</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>816</v>
@@ -9824,7 +9873,7 @@
         <v>239</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>817</v>
@@ -9842,7 +9891,7 @@
         <v>239</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>818</v>
@@ -9860,7 +9909,7 @@
         <v>239</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>819</v>
@@ -9878,7 +9927,7 @@
         <v>239</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>820</v>
@@ -9896,7 +9945,7 @@
         <v>239</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>821</v>
@@ -9914,7 +9963,7 @@
         <v>239</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>723</v>
@@ -9932,7 +9981,7 @@
         <v>239</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>724</v>
@@ -9950,7 +9999,7 @@
         <v>239</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>822</v>
@@ -9968,7 +10017,7 @@
         <v>239</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>823</v>
@@ -9986,7 +10035,7 @@
         <v>239</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>824</v>
@@ -10004,7 +10053,7 @@
         <v>239</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>825</v>
@@ -10022,7 +10071,7 @@
         <v>239</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>826</v>
@@ -10040,7 +10089,7 @@
         <v>239</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>73</v>
@@ -10058,7 +10107,7 @@
         <v>239</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>730</v>
@@ -10076,7 +10125,7 @@
         <v>239</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>827</v>
@@ -10094,7 +10143,7 @@
         <v>239</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>66</v>
@@ -10112,7 +10161,7 @@
         <v>239</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>732</v>
@@ -10130,7 +10179,7 @@
         <v>239</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>828</v>
@@ -10148,7 +10197,7 @@
         <v>239</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>829</v>
@@ -10166,7 +10215,7 @@
         <v>239</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>830</v>
@@ -10184,7 +10233,7 @@
         <v>239</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>317</v>
@@ -10202,7 +10251,7 @@
         <v>239</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>831</v>
@@ -10220,7 +10269,7 @@
         <v>239</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>737</v>
@@ -10238,7 +10287,7 @@
         <v>239</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>832</v>
@@ -10256,7 +10305,7 @@
         <v>239</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>833</v>
@@ -10274,7 +10323,7 @@
         <v>239</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>834</v>
@@ -10292,7 +10341,7 @@
         <v>239</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>810</v>
@@ -10310,7 +10359,7 @@
         <v>239</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C331" s="11" t="s">
         <v>741</v>
@@ -10328,7 +10377,7 @@
         <v>239</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>835</v>
@@ -10346,7 +10395,7 @@
         <v>239</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>836</v>
@@ -10364,7 +10413,7 @@
         <v>239</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>837</v>
@@ -10382,7 +10431,7 @@
         <v>239</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>838</v>
@@ -10400,7 +10449,7 @@
         <v>239</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>839</v>
@@ -10418,7 +10467,7 @@
         <v>239</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>840</v>
@@ -10436,7 +10485,7 @@
         <v>239</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>748</v>
@@ -10454,7 +10503,7 @@
         <v>239</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>693</v>
@@ -10472,7 +10521,7 @@
         <v>239</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>841</v>
@@ -10490,7 +10539,7 @@
         <v>239</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>842</v>
@@ -10508,7 +10557,7 @@
         <v>239</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>843</v>
@@ -10526,7 +10575,7 @@
         <v>239</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>752</v>
@@ -10544,7 +10593,7 @@
         <v>239</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>753</v>
@@ -10562,7 +10611,7 @@
         <v>239</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>844</v>
@@ -10580,7 +10629,7 @@
         <v>239</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>845</v>
@@ -10598,7 +10647,7 @@
         <v>239</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>846</v>
@@ -10616,7 +10665,7 @@
         <v>239</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>237</v>
@@ -10634,7 +10683,7 @@
         <v>239</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>757</v>
@@ -10652,7 +10701,7 @@
         <v>239</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>758</v>
@@ -10670,7 +10719,7 @@
         <v>239</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>759</v>
@@ -10688,7 +10737,7 @@
         <v>239</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>760</v>
@@ -10706,7 +10755,7 @@
         <v>239</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>761</v>
@@ -10724,7 +10773,7 @@
         <v>239</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>762</v>
@@ -10742,7 +10791,7 @@
         <v>239</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>763</v>
@@ -10760,7 +10809,7 @@
         <v>239</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>764</v>
@@ -10778,7 +10827,7 @@
         <v>239</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>847</v>
@@ -10796,7 +10845,7 @@
         <v>239</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>766</v>
@@ -10814,7 +10863,7 @@
         <v>239</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>778</v>
@@ -10832,7 +10881,7 @@
         <v>239</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>779</v>
@@ -10850,7 +10899,7 @@
         <v>239</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>769</v>
@@ -10868,7 +10917,7 @@
         <v>239</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>848</v>
@@ -10886,7 +10935,7 @@
         <v>239</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>849</v>
@@ -10904,7 +10953,7 @@
         <v>239</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>772</v>
@@ -10922,7 +10971,7 @@
         <v>239</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>242</v>
@@ -10940,7 +10989,7 @@
         <v>239</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>850</v>
@@ -10958,7 +11007,7 @@
         <v>239</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>399</v>
@@ -10976,7 +11025,7 @@
         <v>239</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>400</v>
@@ -11012,7 +11061,7 @@
         <v>239</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>851</v>
@@ -11030,7 +11079,7 @@
         <v>239</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>775</v>
@@ -11048,7 +11097,7 @@
         <v>239</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>799</v>
@@ -11066,70 +11115,70 @@
         <v>239</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>852</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F373" s="14"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E374" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F374" s="14"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B375" s="11" t="s">
         <v>1207</v>
       </c>
-      <c r="B375" s="11" t="s">
-        <v>1208</v>
-      </c>
       <c r="C375" s="11" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E375" s="11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F375" s="14"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="11" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E376" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F376" s="14"/>
     </row>
@@ -11138,7 +11187,107 @@
       <c r="B377" s="15"/>
       <c r="C377" s="15"/>
       <c r="D377" s="15"/>
-      <c r="E377" s="16"/>
+      <c r="E377" s="15"/>
+      <c r="F377" s="14"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B378" s="15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C378" s="15"/>
+      <c r="D378" s="15" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E378" s="16" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E379" s="17" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E380" s="17" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E381" s="17" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D382" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E382" s="17" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D383" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E383" s="17" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E384" s="17" t="s">
+        <v>1263</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E245"/>
@@ -11148,5 +11297,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1272">
   <si>
     <t>No frames selected</t>
   </si>
@@ -3817,6 +3817,27 @@
   </si>
   <si>
     <t>MSG_I_Processing</t>
+  </si>
+  <si>
+    <t>PleaseWaitWhileMapIsBeingSaved</t>
+  </si>
+  <si>
+    <t>PleaseWaitWhileHeatmapIsBeingLoaded</t>
+  </si>
+  <si>
+    <t>ClearingExistingHeatmap</t>
+  </si>
+  <si>
+    <t>Deleting</t>
+  </si>
+  <si>
+    <t>ProcessingDuplicates</t>
+  </si>
+  <si>
+    <t>PercentageComplete</t>
+  </si>
+  <si>
+    <t>CharactersRemaining</t>
   </si>
 </sst>
 </file>
@@ -4403,14 +4424,14 @@
   <dimension ref="A1:F384"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+      <selection activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.42578125" style="11" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="106.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="94.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="11"/>
@@ -11197,7 +11218,9 @@
       <c r="B378" s="15" t="s">
         <v>1250</v>
       </c>
-      <c r="C378" s="15"/>
+      <c r="C378" s="15" t="s">
+        <v>1265</v>
+      </c>
       <c r="D378" s="15" t="s">
         <v>1257</v>
       </c>
@@ -11212,6 +11235,9 @@
       <c r="B379" s="11" t="s">
         <v>1251</v>
       </c>
+      <c r="C379" s="11" t="s">
+        <v>1266</v>
+      </c>
       <c r="D379" s="11" t="s">
         <v>1258</v>
       </c>
@@ -11226,6 +11252,9 @@
       <c r="B380" s="11" t="s">
         <v>1252</v>
       </c>
+      <c r="C380" s="11" t="s">
+        <v>1267</v>
+      </c>
       <c r="D380" s="11" t="s">
         <v>1259</v>
       </c>
@@ -11240,6 +11269,9 @@
       <c r="B381" s="11" t="s">
         <v>1253</v>
       </c>
+      <c r="C381" s="11" t="s">
+        <v>1268</v>
+      </c>
       <c r="D381" s="11" t="s">
         <v>1260</v>
       </c>
@@ -11254,6 +11286,9 @@
       <c r="B382" s="11" t="s">
         <v>1254</v>
       </c>
+      <c r="C382" s="11" t="s">
+        <v>1269</v>
+      </c>
       <c r="D382" s="11" t="s">
         <v>1261</v>
       </c>
@@ -11268,6 +11303,9 @@
       <c r="B383" s="11" t="s">
         <v>1255</v>
       </c>
+      <c r="C383" s="11" t="s">
+        <v>1270</v>
+      </c>
       <c r="D383" s="11" t="s">
         <v>1262</v>
       </c>
@@ -11281,6 +11319,9 @@
       </c>
       <c r="B384" s="11" t="s">
         <v>1256</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>1271</v>
       </c>
       <c r="D384" s="11" t="s">
         <v>1263</v>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1276">
   <si>
     <t>No frames selected</t>
   </si>
@@ -3838,13 +3838,25 @@
   </si>
   <si>
     <t>CharactersRemaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">items per page </t>
+  </si>
+  <si>
+    <t>No items to display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL_ItemsPerPage </t>
+  </si>
+  <si>
+    <t>LBL_NoItemsToDisplay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3907,6 +3919,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3922,7 +3940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3969,6 +3987,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -4041,7 +4072,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4064,6 +4095,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4421,10 +4456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F384"/>
+  <dimension ref="A1:F387"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="C384" sqref="C384"/>
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11313,22 +11348,59 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="11" t="s">
+    <row r="384" spans="1:6" s="18" customFormat="1">
+      <c r="A384" s="18" t="s">
         <v>1206</v>
       </c>
-      <c r="B384" s="11" t="s">
+      <c r="B384" s="18" t="s">
         <v>1256</v>
       </c>
-      <c r="C384" s="11" t="s">
+      <c r="C384" s="18" t="s">
         <v>1271</v>
       </c>
-      <c r="D384" s="11" t="s">
+      <c r="D384" s="18" t="s">
         <v>1263</v>
       </c>
-      <c r="E384" s="17" t="s">
+      <c r="E384" s="19" t="s">
         <v>1263</v>
       </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B385" s="21" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C385" s="21" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D385" s="21" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E385" s="21" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B386" s="21" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C386" s="21" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D386" s="21" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E386" s="21" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" s="15" customFormat="1">
+      <c r="E387" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E245"/>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="1304">
   <si>
     <t>No frames selected</t>
   </si>
@@ -3594,9 +3594,6 @@
     <t>LBL_GoogleMaps</t>
   </si>
   <si>
-    <t>LBL_AnErrorOccurredWhileProcessingYourRequest</t>
-  </si>
-  <si>
     <t>LBL_Distance</t>
   </si>
   <si>
@@ -3850,13 +3847,100 @@
   </si>
   <si>
     <t>LBL_NoItemsToDisplay</t>
+  </si>
+  <si>
+    <t>MSG_I_YourChangesWillBeLostDoYouWantToContinue</t>
+  </si>
+  <si>
+    <t>Your changes will be lost. Do you want to continue?</t>
+  </si>
+  <si>
+    <t>YourChangesWillBeLostDoYouWantToContinue</t>
+  </si>
+  <si>
+    <t>MSG_I_Pagination</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>%{x} - %{y} of %{total} items</t>
+  </si>
+  <si>
+    <t>LBL_Home</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>MSG_E_ErrorWhileProcessingFilePleaseRetryAgain</t>
+  </si>
+  <si>
+    <t>ErrorWhileProcessingFilePleaseRetryAgain</t>
+  </si>
+  <si>
+    <t>Error while processing file. Please retry again</t>
+  </si>
+  <si>
+    <t>MSG_E_AnErrorOccurredWhileProcessingYourRequest</t>
+  </si>
+  <si>
+    <t>LBL_FrameUniversePrefilters</t>
+  </si>
+  <si>
+    <t>Frame Universe Prefilters</t>
+  </si>
+  <si>
+    <t>FrameUniversePrefilters</t>
+  </si>
+  <si>
+    <t>LBL_SelectFiles</t>
+  </si>
+  <si>
+    <t>SelectFiles</t>
+  </si>
+  <si>
+    <t>Select files</t>
+  </si>
+  <si>
+    <t>LBL_UploadFiles</t>
+  </si>
+  <si>
+    <t>UploadFiles</t>
+  </si>
+  <si>
+    <t>Upload files</t>
+  </si>
+  <si>
+    <t>LBL_Reloading</t>
+  </si>
+  <si>
+    <t>Reloading</t>
+  </si>
+  <si>
+    <t>Reloading…</t>
+  </si>
+  <si>
+    <t>LBL_Filters</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>LBL_NotMapped</t>
+  </si>
+  <si>
+    <t>NotMapped</t>
+  </si>
+  <si>
+    <t>Not Mapped</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3924,6 +4008,13 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4072,7 +4163,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4097,8 +4188,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4456,10 +4548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F387"/>
+  <dimension ref="A1:F396"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4565,7 +4657,7 @@
         <v>237</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>245</v>
@@ -6095,7 +6187,7 @@
         <v>237</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>311</v>
@@ -6353,7 +6445,7 @@
         <v>320</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>522</v>
@@ -6815,7 +6907,7 @@
         <v>70</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>338</v>
@@ -6947,7 +7039,7 @@
         <v>342</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>657</v>
@@ -7085,7 +7177,7 @@
         <v>66</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>350</v>
@@ -7127,7 +7219,7 @@
         <v>352</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>563</v>
@@ -7391,7 +7483,7 @@
         <v>237</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>367</v>
@@ -7415,7 +7507,7 @@
         <v>368</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>575</v>
@@ -7559,7 +7651,7 @@
         <v>376</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>607</v>
@@ -7577,7 +7669,7 @@
         <v>377</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>577</v>
@@ -7643,7 +7735,7 @@
         <v>237</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>224</v>
@@ -7877,7 +7969,7 @@
         <v>237</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>388</v>
@@ -8021,7 +8113,7 @@
         <v>237</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>396</v>
@@ -8243,7 +8335,7 @@
         <v>405</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>645</v>
@@ -8600,13 +8692,13 @@
         <v>1073</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F230" s="14"/>
     </row>
@@ -8747,10 +8839,10 @@
         <v>424</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F238" s="14"/>
     </row>
@@ -8765,10 +8857,10 @@
         <v>425</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F239" s="14"/>
     </row>
@@ -8783,10 +8875,10 @@
         <v>426</v>
       </c>
       <c r="D240" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E240" s="9" t="s">
         <v>1219</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>1220</v>
       </c>
       <c r="F240" s="14"/>
     </row>
@@ -8837,7 +8929,7 @@
         <v>429</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>638</v>
@@ -9605,7 +9697,7 @@
         <v>239</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>800</v>
@@ -9659,7 +9751,7 @@
         <v>239</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>138</v>
@@ -9893,7 +9985,7 @@
         <v>239</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>815</v>
@@ -9965,7 +10057,7 @@
         <v>239</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>819</v>
@@ -9983,7 +10075,7 @@
         <v>239</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>820</v>
@@ -10145,7 +10237,7 @@
         <v>239</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>73</v>
@@ -10199,7 +10291,7 @@
         <v>239</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>66</v>
@@ -10289,7 +10381,7 @@
         <v>239</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>317</v>
@@ -10397,7 +10489,7 @@
         <v>239</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>810</v>
@@ -10559,7 +10651,7 @@
         <v>239</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>693</v>
@@ -10649,7 +10741,7 @@
         <v>239</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>753</v>
@@ -10667,7 +10759,7 @@
         <v>239</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>844</v>
@@ -10685,7 +10777,7 @@
         <v>239</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>845</v>
@@ -10883,7 +10975,7 @@
         <v>239</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>847</v>
@@ -10919,7 +11011,7 @@
         <v>239</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>778</v>
@@ -10937,7 +11029,7 @@
         <v>239</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>779</v>
@@ -10991,7 +11083,7 @@
         <v>239</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>1190</v>
+        <v>1286</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>849</v>
@@ -11009,7 +11101,7 @@
         <v>239</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>772</v>
@@ -11027,7 +11119,7 @@
         <v>239</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>242</v>
@@ -11045,7 +11137,7 @@
         <v>239</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>850</v>
@@ -11063,7 +11155,7 @@
         <v>239</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>399</v>
@@ -11081,7 +11173,7 @@
         <v>239</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>400</v>
@@ -11117,7 +11209,7 @@
         <v>239</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>851</v>
@@ -11135,7 +11227,7 @@
         <v>239</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>775</v>
@@ -11153,7 +11245,7 @@
         <v>239</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>799</v>
@@ -11171,70 +11263,70 @@
         <v>239</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>852</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F373" s="14"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E374" s="11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F374" s="14"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B375" s="11" t="s">
         <v>1206</v>
       </c>
-      <c r="B375" s="11" t="s">
-        <v>1207</v>
-      </c>
       <c r="C375" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E375" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F375" s="14"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E376" s="11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F376" s="14"/>
     </row>
@@ -11248,159 +11340,326 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E379" s="17" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E380" s="17" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E381" s="17" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E382" s="17" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E383" s="17" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="384" spans="1:6" s="18" customFormat="1">
       <c r="A384" s="18" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B384" s="18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C384" s="18" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D384" s="18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E384" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B385" s="21" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C385" s="21" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D385" s="21" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E385" s="21" t="s">
-        <v>1272</v>
+      <c r="B385" s="20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C385" s="20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D385" s="20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E385" s="22" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B386" s="21" t="s">
+      <c r="B386" s="20" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C386" s="20" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D386" s="20" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E386" s="22" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" s="15" customFormat="1">
+      <c r="A387" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B387" s="15" t="s">
         <v>1275</v>
       </c>
-      <c r="C386" s="21" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D386" s="21" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E386" s="21" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" s="15" customFormat="1">
-      <c r="E387" s="20"/>
+      <c r="C387" s="15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D387" s="15" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E387" s="16" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D388" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E388" s="17" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D389" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E389" s="17" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D390" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E390" s="17" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D391" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E391" s="17" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D392" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E392" s="17" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D393" s="11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E393" s="17" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B394" s="21" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D394" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E394" s="17" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B395" s="21" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C395" s="21" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D395" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E395" s="17" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B396" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D396" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E396" s="17" t="s">
+        <v>1303</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E245"/>
